--- a/econ/p6/Praktika6O.TR.xlsx
+++ b/econ/p6/Praktika6O.TR.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="122">
   <si>
     <t xml:space="preserve">Практика </t>
   </si>
@@ -681,9 +681,6 @@
   </si>
   <si>
     <t xml:space="preserve">Среднедневной заработок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Размер коменсации</t>
   </si>
   <si>
     <t xml:space="preserve">х</t>
@@ -984,7 +981,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1097,7 +1094,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1129,7 +1126,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1173,19 +1170,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1383,8 +1372,8 @@
   </sheetPr>
   <dimension ref="A2:BD85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1396,9 +1385,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="10.1"/>
   </cols>
   <sheetData>
@@ -2466,13 +2455,20 @@
       <c r="J46" s="34" t="n">
         <v>7</v>
       </c>
+      <c r="K46" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="L46" s="35" t="n">
-        <f aca="false">F47*0.13</f>
-        <v>8132.42857142858</v>
+        <f aca="false">(F47-1400)*0.13</f>
+        <v>7967.05712546039</v>
       </c>
       <c r="M46" s="36" t="n">
         <f aca="false">F47-L46</f>
-        <v>54424.7142857143</v>
+        <v>54717.9976857734</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <f aca="false">M46-J47</f>
+        <v>-182</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,24 +2486,38 @@
         <v>4557.14285714286</v>
       </c>
       <c r="E47" s="37" t="n">
-        <f aca="false">B47-C47</f>
-        <v>27619.0476190476</v>
+        <f aca="false">AX73*14</f>
+        <v>27746.9595731385</v>
       </c>
       <c r="F47" s="38" t="n">
         <f aca="false">C47+D47+E47</f>
-        <v>62557.1428571429</v>
+        <v>62685.0548112338</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="39" t="n">
         <f aca="false">(F47-2800)*0.13</f>
-        <v>7768.42857142857</v>
+        <v>7785.05712546039</v>
       </c>
       <c r="I47" s="33"/>
       <c r="J47" s="40" t="n">
         <f aca="false">F47-H47</f>
-        <v>54788.7142857143</v>
-      </c>
-      <c r="M47" s="36"/>
+        <v>54899.9976857734</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="35" t="n">
+        <f aca="false">F47*0.13</f>
+        <v>8149.05712546039</v>
+      </c>
+      <c r="M47" s="36" t="n">
+        <f aca="false">F47-L47</f>
+        <v>54535.9976857734</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <f aca="false">M47-J47</f>
+        <v>-364</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="41" t="s">
@@ -2594,16 +2604,16 @@
       <c r="AM57" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AN57" s="47" t="s">
+      <c r="AN57" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="H58" s="48"/>
-      <c r="N58" s="48"/>
+      <c r="H58" s="47"/>
+      <c r="N58" s="47"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="1" t="s">
@@ -2686,7 +2696,7 @@
       <c r="E60" s="1" t="n">
         <v>54000</v>
       </c>
-      <c r="F60" s="49" t="n">
+      <c r="F60" s="48" t="n">
         <v>29.3</v>
       </c>
       <c r="G60" s="1" t="n">
@@ -2695,7 +2705,7 @@
       <c r="H60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I60" s="47" t="s">
+      <c r="I60" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J60" s="1" t="n">
@@ -2707,7 +2717,7 @@
       <c r="M60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N60" s="47" t="s">
+      <c r="N60" s="28" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="n">
@@ -2719,7 +2729,7 @@
       <c r="R60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="S60" s="47" t="s">
+      <c r="S60" s="28" t="s">
         <v>22</v>
       </c>
       <c r="T60" s="1" t="n">
@@ -2731,7 +2741,7 @@
       <c r="W60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="X60" s="47" t="s">
+      <c r="X60" s="28" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="1" t="n">
@@ -2743,7 +2753,7 @@
       <c r="AB60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AC60" s="47" t="s">
+      <c r="AC60" s="28" t="s">
         <v>24</v>
       </c>
       <c r="AD60" s="1" t="n">
@@ -2758,7 +2768,7 @@
       <c r="AG60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AH60" s="47" t="s">
+      <c r="AH60" s="28" t="s">
         <v>25</v>
       </c>
       <c r="AI60" s="1" t="n">
@@ -2767,7 +2777,7 @@
       <c r="AK60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AL60" s="47" t="s">
+      <c r="AL60" s="28" t="s">
         <v>26</v>
       </c>
       <c r="AM60" s="1" t="n">
@@ -2782,7 +2792,7 @@
       <c r="AP60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AQ60" s="47" t="s">
+      <c r="AQ60" s="28" t="s">
         <v>27</v>
       </c>
       <c r="AR60" s="1" t="n">
@@ -2794,19 +2804,22 @@
       <c r="AV60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AW60" s="47" t="s">
+      <c r="AW60" s="28" t="s">
         <v>28</v>
       </c>
       <c r="AX60" s="1" t="n">
         <v>58000</v>
       </c>
+      <c r="AY60" s="1" t="n">
+        <v>29.3</v>
+      </c>
       <c r="AZ60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BA60" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="BB60" s="47" t="s">
+      <c r="BB60" s="28" t="s">
         <v>29</v>
       </c>
       <c r="BC60" s="1" t="n">
@@ -2827,69 +2840,69 @@
       <c r="E61" s="1" t="n">
         <v>54000</v>
       </c>
-      <c r="F61" s="49" t="n">
+      <c r="F61" s="48" t="n">
         <v>29.3</v>
       </c>
-      <c r="G61" s="47" t="n">
+      <c r="G61" s="28" t="n">
         <f aca="false">G60+1</f>
         <v>2</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I61" s="47" t="s">
+      <c r="I61" s="28" t="s">
         <v>33</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>55000</v>
       </c>
-      <c r="L61" s="47" t="n">
+      <c r="L61" s="28" t="n">
         <f aca="false">L60+1</f>
         <v>2</v>
       </c>
       <c r="M61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N61" s="47" t="s">
+      <c r="N61" s="28" t="s">
         <v>31</v>
       </c>
       <c r="O61" s="1" t="n">
         <v>51000</v>
       </c>
-      <c r="Q61" s="47" t="n">
+      <c r="Q61" s="28" t="n">
         <f aca="false">Q60+1</f>
         <v>2</v>
       </c>
       <c r="R61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="S61" s="47" t="s">
+      <c r="S61" s="28" t="s">
         <v>21</v>
       </c>
       <c r="T61" s="1" t="n">
         <v>48000</v>
       </c>
-      <c r="V61" s="47" t="n">
+      <c r="V61" s="28" t="n">
         <f aca="false">V60+1</f>
         <v>2</v>
       </c>
       <c r="W61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="X61" s="47" t="s">
+      <c r="X61" s="28" t="s">
         <v>22</v>
       </c>
       <c r="Y61" s="1" t="n">
         <v>49000</v>
       </c>
-      <c r="AA61" s="47" t="n">
+      <c r="AA61" s="28" t="n">
         <f aca="false">AA60+1</f>
         <v>2</v>
       </c>
       <c r="AB61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AC61" s="47" t="s">
+      <c r="AC61" s="28" t="s">
         <v>23</v>
       </c>
       <c r="AD61" s="1" t="n">
@@ -2898,14 +2911,14 @@
       <c r="AE61" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AF61" s="47" t="n">
+      <c r="AF61" s="28" t="n">
         <f aca="false">AF60+1</f>
         <v>2</v>
       </c>
       <c r="AG61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AH61" s="47" t="s">
+      <c r="AH61" s="28" t="s">
         <v>24</v>
       </c>
       <c r="AI61" s="1" t="n">
@@ -2914,7 +2927,7 @@
       <c r="AK61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AL61" s="47" t="s">
+      <c r="AL61" s="28" t="s">
         <v>25</v>
       </c>
       <c r="AM61" s="1" t="n">
@@ -2923,40 +2936,43 @@
       <c r="AN61" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AO61" s="47" t="n">
+      <c r="AO61" s="28" t="n">
         <f aca="false">AO60+1</f>
         <v>2</v>
       </c>
       <c r="AP61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AQ61" s="47" t="s">
+      <c r="AQ61" s="28" t="s">
         <v>26</v>
       </c>
       <c r="AR61" s="1" t="n">
         <v>57000</v>
       </c>
-      <c r="AU61" s="47" t="n">
+      <c r="AU61" s="28" t="n">
         <f aca="false">AU60+1</f>
         <v>2</v>
       </c>
       <c r="AV61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AW61" s="47" t="s">
+      <c r="AW61" s="28" t="s">
         <v>27</v>
       </c>
       <c r="AX61" s="1" t="n">
         <v>58000</v>
       </c>
-      <c r="AZ61" s="47" t="n">
+      <c r="AY61" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AZ61" s="28" t="n">
         <f aca="false">AZ60+1</f>
         <v>2</v>
       </c>
       <c r="BA61" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="BB61" s="47" t="s">
+      <c r="BB61" s="28" t="s">
         <v>28</v>
       </c>
       <c r="BC61" s="1" t="n">
@@ -2977,69 +2993,69 @@
       <c r="E62" s="1" t="n">
         <v>54000</v>
       </c>
-      <c r="F62" s="49" t="n">
+      <c r="F62" s="48" t="n">
         <v>29.3</v>
       </c>
-      <c r="G62" s="47" t="n">
+      <c r="G62" s="28" t="n">
         <f aca="false">G61+1</f>
         <v>3</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="I62" s="47" t="s">
+      <c r="I62" s="28" t="s">
         <v>30</v>
       </c>
       <c r="J62" s="1" t="n">
         <v>55000</v>
       </c>
-      <c r="L62" s="47" t="n">
+      <c r="L62" s="28" t="n">
         <f aca="false">L61+1</f>
         <v>3</v>
       </c>
       <c r="M62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N62" s="47" t="s">
+      <c r="N62" s="28" t="s">
         <v>33</v>
       </c>
       <c r="O62" s="1" t="n">
         <v>51000</v>
       </c>
-      <c r="Q62" s="47" t="n">
+      <c r="Q62" s="28" t="n">
         <f aca="false">Q61+1</f>
         <v>3</v>
       </c>
       <c r="R62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="S62" s="47" t="s">
+      <c r="S62" s="28" t="s">
         <v>31</v>
       </c>
       <c r="T62" s="1" t="n">
         <v>48000</v>
       </c>
-      <c r="V62" s="47" t="n">
+      <c r="V62" s="28" t="n">
         <f aca="false">V61+1</f>
         <v>3</v>
       </c>
       <c r="W62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="X62" s="47" t="s">
+      <c r="X62" s="28" t="s">
         <v>21</v>
       </c>
       <c r="Y62" s="1" t="n">
         <v>49000</v>
       </c>
-      <c r="AA62" s="47" t="n">
+      <c r="AA62" s="28" t="n">
         <f aca="false">AA61+1</f>
         <v>3</v>
       </c>
       <c r="AB62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AC62" s="47" t="s">
+      <c r="AC62" s="28" t="s">
         <v>22</v>
       </c>
       <c r="AD62" s="1" t="n">
@@ -3048,14 +3064,14 @@
       <c r="AE62" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AF62" s="47" t="n">
+      <c r="AF62" s="28" t="n">
         <f aca="false">AF61+1</f>
         <v>3</v>
       </c>
       <c r="AG62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AH62" s="47" t="s">
+      <c r="AH62" s="28" t="s">
         <v>23</v>
       </c>
       <c r="AI62" s="1" t="n">
@@ -3064,7 +3080,7 @@
       <c r="AK62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AL62" s="47" t="s">
+      <c r="AL62" s="28" t="s">
         <v>24</v>
       </c>
       <c r="AM62" s="1" t="n">
@@ -3073,40 +3089,43 @@
       <c r="AN62" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AO62" s="47" t="n">
+      <c r="AO62" s="28" t="n">
         <f aca="false">AO61+1</f>
         <v>3</v>
       </c>
       <c r="AP62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AQ62" s="47" t="s">
+      <c r="AQ62" s="28" t="s">
         <v>25</v>
       </c>
       <c r="AR62" s="1" t="n">
         <v>57000</v>
       </c>
-      <c r="AU62" s="47" t="n">
+      <c r="AU62" s="28" t="n">
         <f aca="false">AU61+1</f>
         <v>3</v>
       </c>
       <c r="AV62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AW62" s="47" t="s">
+      <c r="AW62" s="28" t="s">
         <v>26</v>
       </c>
       <c r="AX62" s="1" t="n">
         <v>58000</v>
       </c>
-      <c r="AZ62" s="47" t="n">
+      <c r="AY62" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AZ62" s="28" t="n">
         <f aca="false">AZ61+1</f>
         <v>3</v>
       </c>
       <c r="BA62" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="BB62" s="47" t="s">
+      <c r="BB62" s="28" t="s">
         <v>27</v>
       </c>
       <c r="BC62" s="1" t="n">
@@ -3127,72 +3146,72 @@
       <c r="E63" s="1" t="n">
         <v>54000</v>
       </c>
-      <c r="F63" s="49" t="n">
+      <c r="F63" s="48" t="n">
         <v>29.3</v>
       </c>
-      <c r="G63" s="47" t="n">
+      <c r="G63" s="28" t="n">
         <f aca="false">G62+1</f>
         <v>4</v>
       </c>
       <c r="H63" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="I63" s="47" t="s">
+      <c r="I63" s="28" t="s">
         <v>29</v>
       </c>
       <c r="J63" s="1" t="n">
         <v>55000</v>
       </c>
-      <c r="L63" s="47" t="n">
+      <c r="L63" s="28" t="n">
         <f aca="false">L62+1</f>
         <v>4</v>
       </c>
       <c r="M63" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="N63" s="47" t="s">
+      <c r="N63" s="28" t="s">
         <v>30</v>
       </c>
       <c r="O63" s="1" t="n">
         <v>51000</v>
       </c>
-      <c r="Q63" s="47" t="n">
+      <c r="Q63" s="28" t="n">
         <f aca="false">Q62+1</f>
         <v>4</v>
       </c>
       <c r="R63" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="S63" s="47" t="s">
+      <c r="S63" s="28" t="s">
         <v>33</v>
       </c>
       <c r="T63" s="1" t="n">
         <v>21200</v>
       </c>
-      <c r="U63" s="47" t="s">
+      <c r="U63" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="V63" s="47" t="n">
+      <c r="V63" s="28" t="n">
         <f aca="false">V62+1</f>
         <v>4</v>
       </c>
       <c r="W63" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="X63" s="47" t="s">
+      <c r="X63" s="28" t="s">
         <v>31</v>
       </c>
       <c r="Y63" s="1" t="n">
         <v>49000</v>
       </c>
-      <c r="AA63" s="47" t="n">
+      <c r="AA63" s="28" t="n">
         <f aca="false">AA62+1</f>
         <v>4</v>
       </c>
       <c r="AB63" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AC63" s="47" t="s">
+      <c r="AC63" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AD63" s="1" t="n">
@@ -3201,14 +3220,14 @@
       <c r="AE63" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AF63" s="47" t="n">
+      <c r="AF63" s="28" t="n">
         <f aca="false">AF62+1</f>
         <v>4</v>
       </c>
       <c r="AG63" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AH63" s="47" t="s">
+      <c r="AH63" s="28" t="s">
         <v>22</v>
       </c>
       <c r="AI63" s="1" t="n">
@@ -3217,7 +3236,7 @@
       <c r="AK63" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AL63" s="47" t="s">
+      <c r="AL63" s="28" t="s">
         <v>23</v>
       </c>
       <c r="AM63" s="1" t="n">
@@ -3226,40 +3245,43 @@
       <c r="AN63" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AO63" s="47" t="n">
+      <c r="AO63" s="28" t="n">
         <f aca="false">AO62+1</f>
         <v>4</v>
       </c>
       <c r="AP63" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AQ63" s="47" t="s">
+      <c r="AQ63" s="28" t="s">
         <v>24</v>
       </c>
       <c r="AR63" s="1" t="n">
         <v>57000</v>
       </c>
-      <c r="AU63" s="47" t="n">
+      <c r="AU63" s="28" t="n">
         <f aca="false">AU62+1</f>
         <v>4</v>
       </c>
       <c r="AV63" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AW63" s="47" t="s">
+      <c r="AW63" s="28" t="s">
         <v>25</v>
       </c>
       <c r="AX63" s="1" t="n">
         <v>58000</v>
       </c>
-      <c r="AZ63" s="47" t="n">
+      <c r="AY63" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AZ63" s="28" t="n">
         <f aca="false">AZ62+1</f>
         <v>4</v>
       </c>
       <c r="BA63" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="BB63" s="47" t="s">
+      <c r="BB63" s="28" t="s">
         <v>26</v>
       </c>
       <c r="BC63" s="1" t="n">
@@ -3280,72 +3302,72 @@
       <c r="E64" s="1" t="n">
         <v>54000</v>
       </c>
-      <c r="F64" s="49" t="n">
+      <c r="F64" s="48" t="n">
         <v>29.3</v>
       </c>
-      <c r="G64" s="47" t="n">
+      <c r="G64" s="28" t="n">
         <f aca="false">G63+1</f>
         <v>5</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="I64" s="47" t="s">
+      <c r="I64" s="28" t="s">
         <v>28</v>
       </c>
       <c r="J64" s="1" t="n">
         <v>55000</v>
       </c>
-      <c r="L64" s="47" t="n">
+      <c r="L64" s="28" t="n">
         <f aca="false">L63+1</f>
         <v>5</v>
       </c>
       <c r="M64" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="N64" s="47" t="s">
+      <c r="N64" s="28" t="s">
         <v>29</v>
       </c>
       <c r="O64" s="1" t="n">
         <v>26000</v>
       </c>
-      <c r="P64" s="47" t="s">
+      <c r="P64" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="Q64" s="47" t="n">
+      <c r="Q64" s="28" t="n">
         <f aca="false">Q63+1</f>
         <v>5</v>
       </c>
       <c r="R64" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="S64" s="47" t="s">
+      <c r="S64" s="28" t="s">
         <v>30</v>
       </c>
       <c r="T64" s="1" t="n">
         <v>47000</v>
       </c>
-      <c r="V64" s="47" t="n">
+      <c r="V64" s="28" t="n">
         <f aca="false">V63+1</f>
         <v>5</v>
       </c>
       <c r="W64" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="X64" s="47" t="s">
+      <c r="X64" s="28" t="s">
         <v>33</v>
       </c>
       <c r="Y64" s="1" t="n">
         <v>49000</v>
       </c>
-      <c r="AA64" s="47" t="n">
+      <c r="AA64" s="28" t="n">
         <f aca="false">AA63+1</f>
         <v>5</v>
       </c>
       <c r="AB64" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AC64" s="47" t="s">
+      <c r="AC64" s="28" t="s">
         <v>31</v>
       </c>
       <c r="AD64" s="1" t="n">
@@ -3354,14 +3376,14 @@
       <c r="AE64" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AF64" s="47" t="n">
+      <c r="AF64" s="28" t="n">
         <f aca="false">AF63+1</f>
         <v>5</v>
       </c>
       <c r="AG64" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AH64" s="47" t="s">
+      <c r="AH64" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AI64" s="1" t="n">
@@ -3370,7 +3392,7 @@
       <c r="AK64" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AL64" s="47" t="s">
+      <c r="AL64" s="28" t="s">
         <v>22</v>
       </c>
       <c r="AM64" s="1" t="n">
@@ -3379,40 +3401,43 @@
       <c r="AN64" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AO64" s="47" t="n">
+      <c r="AO64" s="28" t="n">
         <f aca="false">AO63+1</f>
         <v>5</v>
       </c>
       <c r="AP64" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AQ64" s="47" t="s">
+      <c r="AQ64" s="28" t="s">
         <v>23</v>
       </c>
       <c r="AR64" s="1" t="n">
         <v>57000</v>
       </c>
-      <c r="AU64" s="47" t="n">
+      <c r="AU64" s="28" t="n">
         <f aca="false">AU63+1</f>
         <v>5</v>
       </c>
       <c r="AV64" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AW64" s="47" t="s">
+      <c r="AW64" s="28" t="s">
         <v>24</v>
       </c>
       <c r="AX64" s="1" t="n">
         <v>58000</v>
       </c>
-      <c r="AZ64" s="47" t="n">
+      <c r="AY64" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AZ64" s="28" t="n">
         <f aca="false">AZ63+1</f>
         <v>5</v>
       </c>
       <c r="BA64" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="BB64" s="47" t="s">
+      <c r="BB64" s="28" t="s">
         <v>25</v>
       </c>
       <c r="BC64" s="1" t="n">
@@ -3433,69 +3458,69 @@
       <c r="E65" s="1" t="n">
         <v>54000</v>
       </c>
-      <c r="F65" s="49" t="n">
+      <c r="F65" s="48" t="n">
         <v>29.3</v>
       </c>
-      <c r="G65" s="47" t="n">
+      <c r="G65" s="28" t="n">
         <f aca="false">G64+1</f>
         <v>6</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="I65" s="47" t="s">
+      <c r="I65" s="28" t="s">
         <v>27</v>
       </c>
       <c r="J65" s="1" t="n">
         <v>55000</v>
       </c>
-      <c r="L65" s="47" t="n">
+      <c r="L65" s="28" t="n">
         <f aca="false">L64+1</f>
         <v>6</v>
       </c>
       <c r="M65" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="N65" s="47" t="s">
+      <c r="N65" s="28" t="s">
         <v>28</v>
       </c>
       <c r="O65" s="1" t="n">
         <v>50000</v>
       </c>
-      <c r="Q65" s="47" t="n">
+      <c r="Q65" s="28" t="n">
         <f aca="false">Q64+1</f>
         <v>6</v>
       </c>
       <c r="R65" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="S65" s="47" t="s">
+      <c r="S65" s="28" t="s">
         <v>29</v>
       </c>
       <c r="T65" s="1" t="n">
         <v>47000</v>
       </c>
-      <c r="V65" s="47" t="n">
+      <c r="V65" s="28" t="n">
         <f aca="false">V64+1</f>
         <v>6</v>
       </c>
       <c r="W65" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="X65" s="47" t="s">
+      <c r="X65" s="28" t="s">
         <v>30</v>
       </c>
       <c r="Y65" s="1" t="n">
         <v>49000</v>
       </c>
-      <c r="AA65" s="47" t="n">
+      <c r="AA65" s="28" t="n">
         <f aca="false">AA64+1</f>
         <v>6</v>
       </c>
       <c r="AB65" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AC65" s="47" t="s">
+      <c r="AC65" s="28" t="s">
         <v>33</v>
       </c>
       <c r="AD65" s="1" t="n">
@@ -3504,14 +3529,14 @@
       <c r="AE65" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AF65" s="47" t="n">
+      <c r="AF65" s="28" t="n">
         <f aca="false">AF64+1</f>
         <v>6</v>
       </c>
       <c r="AG65" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AH65" s="47" t="s">
+      <c r="AH65" s="28" t="s">
         <v>31</v>
       </c>
       <c r="AI65" s="1" t="n">
@@ -3520,7 +3545,7 @@
       <c r="AK65" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AL65" s="47" t="s">
+      <c r="AL65" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AM65" s="1" t="n">
@@ -3529,40 +3554,43 @@
       <c r="AN65" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="AO65" s="47" t="n">
+      <c r="AO65" s="28" t="n">
         <f aca="false">AO64+1</f>
         <v>6</v>
       </c>
       <c r="AP65" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AQ65" s="47" t="s">
+      <c r="AQ65" s="28" t="s">
         <v>22</v>
       </c>
       <c r="AR65" s="1" t="n">
         <v>57000</v>
       </c>
-      <c r="AU65" s="47" t="n">
+      <c r="AU65" s="28" t="n">
         <f aca="false">AU64+1</f>
         <v>6</v>
       </c>
       <c r="AV65" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="AW65" s="47" t="s">
+      <c r="AW65" s="28" t="s">
         <v>23</v>
       </c>
       <c r="AX65" s="1" t="n">
         <v>58000</v>
       </c>
-      <c r="AZ65" s="47" t="n">
+      <c r="AY65" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AZ65" s="28" t="n">
         <f aca="false">AZ64+1</f>
         <v>6</v>
       </c>
       <c r="BA65" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="BB65" s="47" t="s">
+      <c r="BB65" s="28" t="s">
         <v>24</v>
       </c>
       <c r="BC65" s="1" t="n">
@@ -3711,6 +3739,9 @@
       <c r="AX66" s="1" t="n">
         <v>58000</v>
       </c>
+      <c r="AY66" s="1" t="n">
+        <v>29.3</v>
+      </c>
       <c r="AZ66" s="1" t="n">
         <f aca="false">AZ65+1</f>
         <v>7</v>
@@ -3861,6 +3892,9 @@
       <c r="AX67" s="1" t="n">
         <v>58000</v>
       </c>
+      <c r="AY67" s="1" t="n">
+        <v>29.3</v>
+      </c>
       <c r="AZ67" s="1" t="n">
         <f aca="false">AZ66+1</f>
         <v>8</v>
@@ -4008,6 +4042,9 @@
       <c r="AX68" s="1" t="n">
         <v>58000</v>
       </c>
+      <c r="AY68" s="1" t="n">
+        <v>29.3</v>
+      </c>
       <c r="AZ68" s="1" t="n">
         <f aca="false">AZ67+1</f>
         <v>9</v>
@@ -4155,6 +4192,9 @@
       <c r="AX69" s="1" t="n">
         <v>58000</v>
       </c>
+      <c r="AY69" s="1" t="n">
+        <v>29.3</v>
+      </c>
       <c r="AZ69" s="1" t="n">
         <f aca="false">AZ68+1</f>
         <v>10</v>
@@ -4299,8 +4339,9 @@
       <c r="AX70" s="1" t="n">
         <v>27000</v>
       </c>
-      <c r="AY70" s="1" t="s">
-        <v>112</v>
+      <c r="AY70" s="36" t="n">
+        <f aca="false">AW77</f>
+        <v>13.2322580645161</v>
       </c>
       <c r="AZ70" s="1" t="n">
         <f aca="false">AZ69+1</f>
@@ -4446,6 +4487,9 @@
       <c r="AX71" s="1" t="n">
         <v>58000</v>
       </c>
+      <c r="AY71" s="1" t="n">
+        <v>29.3</v>
+      </c>
       <c r="AZ71" s="1" t="n">
         <f aca="false">AZ70+1</f>
         <v>12</v>
@@ -4479,6 +4523,10 @@
         <f aca="false">SUM(AX60:AX71)</f>
         <v>665000</v>
       </c>
+      <c r="AY72" s="36" t="n">
+        <f aca="false">SUM(AY60:AY71)</f>
+        <v>335.532258064516</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1" t="s">
@@ -4490,9 +4538,9 @@
       <c r="AU73" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AX73" s="50" t="n">
-        <f aca="false">AX72/12/29.3</f>
-        <v>1891.35381114903</v>
+      <c r="AX73" s="36" t="n">
+        <f aca="false">AX72/AY72</f>
+        <v>1981.92568379561</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,13 +4565,8 @@
       <c r="AO74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AU74" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX74" s="50" t="n">
-        <f aca="false">14*AX73</f>
-        <v>26478.9533560865</v>
-      </c>
+      <c r="AU74" s="1"/>
+      <c r="AX74" s="36"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="n">
@@ -4543,7 +4586,7 @@
         <v>14</v>
       </c>
       <c r="AN75" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,6 +4609,12 @@
       <c r="AE76" s="1" t="n">
         <v>29.3</v>
       </c>
+      <c r="AV76" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW76" s="1" t="n">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="n">
@@ -4581,12 +4630,19 @@
       <c r="E77" s="1" t="n">
         <v>50000</v>
       </c>
-      <c r="K77" s="49"/>
+      <c r="K77" s="48"/>
       <c r="AC77" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AE77" s="47" t="s">
-        <v>122</v>
+      <c r="AE77" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV77" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW77" s="36" t="n">
+        <f aca="false">AV77*AW76/AV76</f>
+        <v>13.2322580645161</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,7 +4811,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4778,7 +4834,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
